--- a/자유수강권/기타교실(수강).xlsx
+++ b/자유수강권/기타교실(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>주야</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>박지연</t>
+  </si>
+  <si>
+    <t>류시연</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,6 +822,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="13.5">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G1"/>
@@ -832,7 +861,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>